--- a/genomic_range/results/Prioritization_Table.xlsx
+++ b/genomic_range/results/Prioritization_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajni\Desktop\benchmarks\genomic_range\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757BF81-FC1F-FD48-AEB5-42BD7B4985FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAED55-0A62-4400-9FCB-8C295973BC25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="25780" windowHeight="26780" xr2:uid="{0FA181A9-DA20-DA42-9374-C46A77B896BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA181A9-DA20-DA42-9374-C46A77B896BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,33 +481,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A531671-1143-A040-A298-AE7DDDD76159}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.375" customWidth="1"/>
+    <col min="22" max="22" width="24.625" customWidth="1"/>
     <col min="23" max="23" width="20.5" customWidth="1"/>
-    <col min="24" max="24" width="21.1640625" customWidth="1"/>
+    <col min="24" max="24" width="21.125" customWidth="1"/>
     <col min="25" max="25" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -584,7 +584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.908277</v>
       </c>
@@ -658,11 +658,11 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>MEDIAN(U2,V2,W2,X2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <f>MEDIAN($U2,$V2,$W2,$X2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.2624909999999998</v>
       </c>
@@ -733,11 +733,11 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="0">MEDIAN(U3,V3,W3,X3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Y3:Y66" si="0">MEDIAN($U3,$V3,$W3,$X3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.2080539999999997</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.0029830000000004</v>
       </c>
@@ -836,7 +836,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2080539999999997</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.6539899999999998</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1319910000000002</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1319910000000002</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.1319910000000002</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.1319910000000002</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.4981360000000001</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.7725580000000001</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.7725580000000001</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.7725580000000001</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.26099929999999999</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.5302009999999999</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.1707679999999998</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15.231170000000001</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.5607760000000002</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.3810589999999996</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.2214770000000001</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.9656969999999996</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12.00597</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9.5078300000000002</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.6689039999999995</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.4638329999999993</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.3437729999999997</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.808352</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8.8553320000000006</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.2811330000000001</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.1879189999999999</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.6979870000000004</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.9455629999999999</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.9112600000000004</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8.4265469999999993</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10.57047</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11.12975</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10.06711</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.6286350000000001</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.960477</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21.532440000000001</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.1536170000000006</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8.1096199999999996</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6.4690529999999997</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.6569719999999997</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.2520509999999998</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7.5876210000000004</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.1200599999999996</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.6114839999999999</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.97912</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.8471289999999998</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.6927669999999999</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8.6502610000000004</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4.8284859999999998</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.3997019999999996</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.8351980000000001</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.1573450000000003</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8.7621179999999992</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.3385530000000001</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.2266959999999996</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9.8061150000000001</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10.794180000000001</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16.331099999999999</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8.5756899999999998</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6.1521249999999998</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9.4146160000000005</v>
       </c>
@@ -5335,11 +5335,11 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y107" si="1">MEDIAN(U67,V67,W67,X67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Y67:Y107" si="1">MEDIAN($U67,$V67,$W67,$X67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11.502610000000001</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9.8247579999999992</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9.3400449999999999</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.2624909999999998</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8.9671889999999994</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.3385530000000001</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7.4011930000000001</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7.1401940000000002</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12.509320000000001</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7.6249070000000003</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8.0164059999999999</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.7539150000000001</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6.6927669999999999</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8.9671889999999994</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.4862039999999999</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.8098429999999999</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4.9589860000000003</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.7233409999999996</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.3571960000000001</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5.4436989999999996</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3.0387770000000001</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5.8165550000000001</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3.4489190000000001</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4.4556300000000002</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4.1759880000000003</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3.598061</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7.7554059999999998</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.0387770000000001</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.5234899999999998</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.7792690000000002</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3.8404180000000001</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4.3437729999999997</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4.6420579999999996</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8.5384039999999999</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.9030570000000004</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3.1319910000000002</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6.2080539999999997</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7.6435500000000003</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5.2013420000000004</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6.7859809999999996</v>
       </c>
